--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -9223,7 +9223,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F185" t="n">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>26/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F161" t="n">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porvenir Solar</t>
+          <t>ACTUALIZACIÓN DISEÑO CONSTRUCCIÓN PTAS ALCANTARILLADOEL PORVENIR, COMUNA DE LLAY-LLAY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Porvenir Solar Spa</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>75000</v>
+        <v>12309</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158868080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158587659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN DISEÑO CONSTRUCCIÓN PTAS ALCANTARILLADOEL PORVENIR, COMUNA DE LLAY-LLAY</t>
+          <t>Porvenir Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
+          <t>Porvenir Solar Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12309</v>
+        <v>75000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158587659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158868080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>extracción y venta de áridos patricio toro ltda extraccion y ventas de aridos patricio toro ltda.</t>
+          <t>ivon vega</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>extracción y venta de áridos patricio toro ltda extraccion y ventas de aridos patricio toro ltda.</t>
+          <t>ivon vega</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ivon vega</t>
+          <t>PATRICIO TORO PULGAR</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ivon vega</t>
+          <t>PATRICIO TORO PULGAR</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>25/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PATRICIO TORO PULGAR</t>
+          <t>bernardita PINTO POZO</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PATRICIO TORO PULGAR</t>
+          <t>bernardita PINTO POZO</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porvenir Solar</t>
+          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Porvenir Solar Spa</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>75000</v>
+        <v>12309</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
+          <t>Porvenir Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
+          <t>Porvenir Solar Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12309</v>
+        <v>75000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
+          <t>Porvenir Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
+          <t>Porvenir Solar Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12309</v>
+        <v>75000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Porvenir Solar</t>
+          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porvenir Solar Spa</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>75000</v>
+        <v>12309</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porvenir Solar</t>
+          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Porvenir Solar Spa</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>75000</v>
+        <v>12309</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN PTAS EL PORVENIR, COMUNA DE LLAY-LLAY</t>
+          <t>Porvenir Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LLAYLLAY</t>
+          <t>Porvenir Solar Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12309</v>
+        <v>75000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159943987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160079651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
+          <t>Construcción de Sifón en Canal Valdesano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
+          <t>Comunidad de Aguas Canal Valdesano o Llay Llay</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1742556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Construcción de Sifón en Canal Comunero o Ucuquer (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comunidad de Aguas Canal Comunero o UCUQUER</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1753348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F171" t="n">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Llay Llay.xlsx
+++ b/data/Llay Llay.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
